--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.292895000000001</v>
+        <v>0.2022703333333333</v>
       </c>
       <c r="H2">
-        <v>21.878685</v>
+        <v>0.606811</v>
       </c>
       <c r="I2">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="J2">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N2">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O2">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P2">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q2">
-        <v>291.468480913795</v>
+        <v>4.010552858719</v>
       </c>
       <c r="R2">
-        <v>2623.216328224155</v>
+        <v>36.094975728471</v>
       </c>
       <c r="S2">
-        <v>0.06712449486443577</v>
+        <v>0.001798093416304884</v>
       </c>
       <c r="T2">
-        <v>0.06712449486443578</v>
+        <v>0.001798093416304884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.292895000000001</v>
+        <v>0.2022703333333333</v>
       </c>
       <c r="H3">
-        <v>21.878685</v>
+        <v>0.606811</v>
       </c>
       <c r="I3">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="J3">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q3">
-        <v>620.7683854638451</v>
+        <v>17.21717209017367</v>
       </c>
       <c r="R3">
-        <v>5586.915469174605</v>
+        <v>154.954548811563</v>
       </c>
       <c r="S3">
-        <v>0.1429614762166889</v>
+        <v>0.007719156154600022</v>
       </c>
       <c r="T3">
-        <v>0.1429614762166889</v>
+        <v>0.007719156154600019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.292895000000001</v>
+        <v>0.2022703333333333</v>
       </c>
       <c r="H4">
-        <v>21.878685</v>
+        <v>0.606811</v>
       </c>
       <c r="I4">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="J4">
-        <v>0.2565758520803378</v>
+        <v>0.01168815774551004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N4">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q4">
-        <v>201.868707095225</v>
+        <v>4.842096582262777</v>
       </c>
       <c r="R4">
-        <v>1816.818363857025</v>
+        <v>43.578869240365</v>
       </c>
       <c r="S4">
-        <v>0.04648988099921302</v>
+        <v>0.002170908174605138</v>
       </c>
       <c r="T4">
-        <v>0.04648988099921303</v>
+        <v>0.002170908174605137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>43.394288</v>
       </c>
       <c r="I5">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="J5">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N5">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O5">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P5">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q5">
-        <v>578.0999728135271</v>
+        <v>286.802786683952</v>
       </c>
       <c r="R5">
-        <v>5202.899755321744</v>
+        <v>2581.225080155568</v>
       </c>
       <c r="S5">
-        <v>0.1331350427140318</v>
+        <v>0.1285853149630413</v>
       </c>
       <c r="T5">
-        <v>0.1331350427140318</v>
+        <v>0.1285853149630413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>43.394288</v>
       </c>
       <c r="I6">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="J6">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>255.358833</v>
       </c>
       <c r="O6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q6">
         <v>1231.23497139399</v>
@@ -818,10 +818,10 @@
         <v>11081.11474254591</v>
       </c>
       <c r="S6">
-        <v>0.2835504726107694</v>
+        <v>0.5520125463936644</v>
       </c>
       <c r="T6">
-        <v>0.2835504726107694</v>
+        <v>0.5520125463936643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>43.394288</v>
       </c>
       <c r="I7">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="J7">
-        <v>0.5088937666509471</v>
+        <v>0.8358439174604506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N7">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q7">
-        <v>400.3873548103022</v>
+        <v>346.2681685311022</v>
       </c>
       <c r="R7">
-        <v>3603.48619329272</v>
+        <v>3116.41351677992</v>
       </c>
       <c r="S7">
-        <v>0.09220825132614587</v>
+        <v>0.1552460561037451</v>
       </c>
       <c r="T7">
-        <v>0.09220825132614588</v>
+        <v>0.155246056103745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.666276</v>
+        <v>2.638545666666667</v>
       </c>
       <c r="H8">
-        <v>19.998828</v>
+        <v>7.915637</v>
       </c>
       <c r="I8">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="J8">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N8">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O8">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P8">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q8">
-        <v>266.4249710261959</v>
+        <v>52.31625761387301</v>
       </c>
       <c r="R8">
-        <v>2397.824739235763</v>
+        <v>470.846318524857</v>
       </c>
       <c r="S8">
-        <v>0.06135703436384474</v>
+        <v>0.02345549895364347</v>
       </c>
       <c r="T8">
-        <v>0.06135703436384474</v>
+        <v>0.02345549895364346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.666276</v>
+        <v>2.638545666666667</v>
       </c>
       <c r="H9">
-        <v>19.998828</v>
+        <v>7.915637</v>
       </c>
       <c r="I9">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="J9">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>255.358833</v>
       </c>
       <c r="O9">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P9">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q9">
-        <v>567.430819938636</v>
+        <v>224.5919807524024</v>
       </c>
       <c r="R9">
-        <v>5106.877379447724</v>
+        <v>2021.327826771621</v>
       </c>
       <c r="S9">
-        <v>0.1306779622945188</v>
+        <v>0.1006936889181799</v>
       </c>
       <c r="T9">
-        <v>0.1306779622945188</v>
+        <v>0.1006936889181799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.666276</v>
+        <v>2.638545666666667</v>
       </c>
       <c r="H10">
-        <v>19.998828</v>
+        <v>7.915637</v>
       </c>
       <c r="I10">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="J10">
-        <v>0.2345303812687151</v>
+        <v>0.1524679247940394</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N10">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O10">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P10">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q10">
-        <v>184.52377516198</v>
+        <v>63.16345429488389</v>
       </c>
       <c r="R10">
-        <v>1660.71397645782</v>
+        <v>568.471088653955</v>
       </c>
       <c r="S10">
-        <v>0.04249538461035156</v>
+        <v>0.02831873692221613</v>
       </c>
       <c r="T10">
-        <v>0.04249538461035156</v>
+        <v>0.02831873692221612</v>
       </c>
     </row>
   </sheetData>
